--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AF/15/seed5/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.85739999999999</v>
+        <v>12.77959999999999</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.63579999999999</v>
+        <v>13.35769999999999</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.81000000000002</v>
+        <v>-22.77180000000002</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -644,7 +644,7 @@
         <v>-10.06</v>
       </c>
       <c r="E12" t="n">
-        <v>12.68389999999999</v>
+        <v>12.83549999999999</v>
       </c>
     </row>
     <row r="13">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.95970000000001</v>
+        <v>13.64890000000001</v>
       </c>
     </row>
     <row r="15">
@@ -814,7 +814,7 @@
         <v>-5.14</v>
       </c>
       <c r="E22" t="n">
-        <v>12.0792</v>
+        <v>11.8557</v>
       </c>
     </row>
     <row r="23">
